--- a/JExcelPoi/src/main/java/output/Null.xlsx
+++ b/JExcelPoi/src/main/java/output/Null.xlsx
@@ -40,52 +40,12 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0">
-      <text>
-        <t>Null</t>
-      </text>
-    </comment>
-    <comment ref="F7" authorId="0">
-      <text>
-        <t>Null</t>
-      </text>
-    </comment>
-    <comment ref="F9" authorId="0">
-      <text>
-        <t>Null</t>
-      </text>
-    </comment>
-    <comment ref="F11" authorId="0">
-      <text>
-        <t>Null</t>
-      </text>
-    </comment>
-    <comment ref="F13" authorId="0">
-      <text>
-        <t>Null</t>
-      </text>
-    </comment>
     <comment ref="B19" authorId="0">
       <text>
         <t>Null</t>
       </text>
     </comment>
     <comment ref="D37" authorId="0">
-      <text>
-        <t>Null</t>
-      </text>
-    </comment>
-    <comment ref="F43" authorId="0">
-      <text>
-        <t>Null</t>
-      </text>
-    </comment>
-    <comment ref="F44" authorId="0">
-      <text>
-        <t>Null</t>
-      </text>
-    </comment>
-    <comment ref="F46" authorId="0">
       <text>
         <t>Null</t>
       </text>
@@ -105,21 +65,6 @@
         <t>Null</t>
       </text>
     </comment>
-    <comment ref="E47" authorId="0">
-      <text>
-        <t>Null</t>
-      </text>
-    </comment>
-    <comment ref="F47" authorId="0">
-      <text>
-        <t>Null</t>
-      </text>
-    </comment>
-    <comment ref="A48" authorId="0">
-      <text>
-        <t>Null</t>
-      </text>
-    </comment>
     <comment ref="B48" authorId="0">
       <text>
         <t>Null</t>
@@ -135,37 +80,12 @@
         <t>Null</t>
       </text>
     </comment>
-    <comment ref="E48" authorId="0">
-      <text>
-        <t>Null</t>
-      </text>
-    </comment>
-    <comment ref="A49" authorId="0">
-      <text>
-        <t>Null</t>
-      </text>
-    </comment>
     <comment ref="B49" authorId="0">
       <text>
         <t>Null</t>
       </text>
     </comment>
     <comment ref="D49" authorId="0">
-      <text>
-        <t>Null</t>
-      </text>
-    </comment>
-    <comment ref="E49" authorId="0">
-      <text>
-        <t>Null</t>
-      </text>
-    </comment>
-    <comment ref="F49" authorId="0">
-      <text>
-        <t>Null</t>
-      </text>
-    </comment>
-    <comment ref="A50" authorId="0">
       <text>
         <t>Null</t>
       </text>
@@ -180,22 +100,12 @@
         <t>Null</t>
       </text>
     </comment>
-    <comment ref="E50" authorId="0">
-      <text>
-        <t>Null</t>
-      </text>
-    </comment>
-    <comment ref="F50" authorId="0">
-      <text>
-        <t>Null</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t>GAJI</t>
   </si>
@@ -341,36 +251,12 @@
     <t>Cell Null/Empty</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F13</t>
-  </si>
-  <si>
     <t>B19</t>
   </si>
   <si>
     <t>D37</t>
   </si>
   <si>
-    <t>F43</t>
-  </si>
-  <si>
-    <t>F44</t>
-  </si>
-  <si>
-    <t>F46</t>
-  </si>
-  <si>
     <t>B47</t>
   </si>
   <si>
@@ -380,15 +266,6 @@
     <t>D47</t>
   </si>
   <si>
-    <t>E47</t>
-  </si>
-  <si>
-    <t>F47</t>
-  </si>
-  <si>
-    <t>A48</t>
-  </si>
-  <si>
     <t>B48</t>
   </si>
   <si>
@@ -398,37 +275,16 @@
     <t>D48</t>
   </si>
   <si>
-    <t>E48</t>
-  </si>
-  <si>
-    <t>A49</t>
-  </si>
-  <si>
     <t>B49</t>
   </si>
   <si>
     <t>D49</t>
   </si>
   <si>
-    <t>E49</t>
-  </si>
-  <si>
-    <t>F49</t>
-  </si>
-  <si>
-    <t>A50</t>
-  </si>
-  <si>
     <t>C50</t>
   </si>
   <si>
     <t>D50</t>
-  </si>
-  <si>
-    <t>E50</t>
-  </si>
-  <si>
-    <t>F50</t>
   </si>
 </sst>
 </file>
@@ -475,26 +331,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -876,20 +714,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>448872</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>448872</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>448872</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>7</v>
       </c>
     </row>
@@ -969,7 +806,6 @@
       <c r="E7" s="0">
         <v>911990.6</v>
       </c>
-      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="19.5" customHeight="1">
       <c r="A8" s="0">
@@ -1007,7 +843,6 @@
       <c r="E9" s="0">
         <v>1009744.4</v>
       </c>
-      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1">
       <c r="A10" s="0">
@@ -1045,7 +880,6 @@
       <c r="E11" s="0">
         <v>567528.6</v>
       </c>
-      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1">
       <c r="A12" s="0">
@@ -1083,7 +917,6 @@
       <c r="E13" s="0">
         <v>634421.6</v>
       </c>
-      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1">
       <c r="A14" s="0">
@@ -1189,7 +1022,7 @@
       <c r="A19" s="0">
         <v>576575</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="1"/>
       <c r="C19">
         <v>576575</v>
       </c>
@@ -1553,7 +1386,7 @@
       <c r="C37" s="0">
         <v>907236</v>
       </c>
-      <c r="D37" s="7"/>
+      <c r="D37" s="2"/>
       <c r="E37">
         <v>907236</v>
       </c>
@@ -1677,7 +1510,6 @@
       <c r="E43" s="0">
         <v>911990.6</v>
       </c>
-      <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" ht="19.5" customHeight="1">
       <c r="A44" s="0">
@@ -1695,7 +1527,7 @@
       <c r="E44" s="0">
         <v>907038.2</v>
       </c>
-      <c r="F44" t="s" s="9">
+      <c r="F44" t="s" s="0">
         <v>44</v>
       </c>
     </row>
@@ -1736,7 +1568,7 @@
       <c r="E46" s="0">
         <v>482924.79999999999</v>
       </c>
-      <c r="F46" t="s" s="10">
+      <c r="F46" t="s" s="0">
         <v>43</v>
       </c>
     </row>
@@ -1744,42 +1576,32 @@
       <c r="A47" s="0">
         <v>66666</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="15"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="20"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
       <c r="F48" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22"/>
+      <c r="B49" s="9"/>
       <c r="C49">
         <v>0</v>
       </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="25"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="A50" s="26"/>
-      <c r="B50">
+      <c r="B50" s="0">
         <v>999999</v>
       </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="30"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2705,7 +2527,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2815,150 +2637,6 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n" s="0">
-        <v>24.0</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n" s="0">
-        <v>25.0</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n" s="0">
-        <v>26.0</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n" s="0">
-        <v>27.0</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n" s="0">
-        <v>28.0</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n" s="0">
-        <v>29.0</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n" s="0">
-        <v>30.0</v>
-      </c>
-      <c r="B31" t="s" s="0">
-        <v>77</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
